--- a/medicine/Psychotrope/Lanson-BCC/Lanson-BCC.xlsx
+++ b/medicine/Psychotrope/Lanson-BCC/Lanson-BCC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lanson-BCC (Boizel Chanoine Champagne), fondé en 1991, est en 2014, le troisième groupe mondial de champagne[3] après le groupe LVMH et Vranken-Pommery Monopole.
+Lanson-BCC (Boizel Chanoine Champagne), fondé en 1991, est en 2014, le troisième groupe mondial de champagne après le groupe LVMH et Vranken-Pommery Monopole.
 Le groupe détient les champagnes : Lanson, Besserat de Bellefon, Chanoine Frères, Boizel, Philipponnat, de Venoge, Maison Burtin et Alexandre Bonnet.
 </t>
         </is>
@@ -513,13 +525,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les champagnes Boizel ont été créés en 1834 par Auguste Boizel et sa femme Julie à Épernay. À partir de 1865, leur fils Édouard Boizel mène la construction des caves et celliers, et élabore les premiers crus et millésimes de la maison.
-En 1991, les héritiers de la famille Boizel crée un groupe en faisant l’acquisition de deux sociétés : Chanoine Frères et Champenoise des Grands Vins[4],[5]. Trois années plus tard, ils se rapprochent de Bruno Paillard et Philippe Baijot pour créer le groupe « Boizel Chanoine Champagne » qui est introduit dans le Second Marché de la Bourse de Paris pour augmenter son capital. En 1997 et suivante, le groupe fait les acquisitions de « Champagne Philipponnat » avec son célèbre vignoble « le Clos des Goisses », puis « Champagne de Venoge » et la « Maison Alexandre Bonnet » avec son important vignoble situé aux Riceys (Aube)[4].
-Le 22 mars 2006, le groupe « Boizel Chanoine Champagne » acquiert 99,9 % du capital de « Lanson International » pour 122,7 millions d'euros[6].
-En 2010, l'entreprise adopte le nom de « Lanson-BCC » lors de la célébration du 250e anniversaire du Champagne Lanson[4],[7].
-Le 15 février 2012, des ouvriers travaillant sur le site du champagne Bonnet ont trouvé, lors de travaux de rénovation, une bourse de pièces d'or américaines, frappées entre 1851 et 1928, évaluée à 750 000 euros[8].
+En 1991, les héritiers de la famille Boizel crée un groupe en faisant l’acquisition de deux sociétés : Chanoine Frères et Champenoise des Grands Vins,. Trois années plus tard, ils se rapprochent de Bruno Paillard et Philippe Baijot pour créer le groupe « Boizel Chanoine Champagne » qui est introduit dans le Second Marché de la Bourse de Paris pour augmenter son capital. En 1997 et suivante, le groupe fait les acquisitions de « Champagne Philipponnat » avec son célèbre vignoble « le Clos des Goisses », puis « Champagne de Venoge » et la « Maison Alexandre Bonnet » avec son important vignoble situé aux Riceys (Aube).
+Le 22 mars 2006, le groupe « Boizel Chanoine Champagne » acquiert 99,9 % du capital de « Lanson International » pour 122,7 millions d'euros.
+En 2010, l'entreprise adopte le nom de « Lanson-BCC » lors de la célébration du 250e anniversaire du Champagne Lanson,.
+Le 15 février 2012, des ouvriers travaillant sur le site du champagne Bonnet ont trouvé, lors de travaux de rénovation, une bourse de pièces d'or américaines, frappées entre 1851 et 1928, évaluée à 750 000 euros.
 </t>
         </is>
       </c>
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,17 +590,19 @@
           <t>Marques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au gré des décennies, « Lanson-BCC » a acquis plusieurs maisons de production de champagne[10] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au gré des décennies, « Lanson-BCC » a acquis plusieurs maisons de production de champagne :
 Lanson (Reims) ;
 Chanoine Frères (Reims), dont dépend la marque Tsarine ;
 Boizel (Épernay) ;
 De Venoge (Épernay) ;
 Philipponnat (Mareuil-sur-Aÿ) ;
 Alexandre Bonnet (Les Riceys) ;
-Maison Burtin (Épernay), dont une partie de la production est distribuée en grande surface sous des marques de distributeur et l'autre partie distribuée chez les cavistes et restaurateurs sous la marque « Besserat de Bellefon »[11].
-Le groupe a segmenté le marché par prix et canaux de distribution. Pour chacun des quatre segments sur lesquels il opère, les marques ou cuvées correspondantes sont les suivantes[11] :
+Maison Burtin (Épernay), dont une partie de la production est distribuée en grande surface sous des marques de distributeur et l'autre partie distribuée chez les cavistes et restaurateurs sous la marque « Besserat de Bellefon ».
+Le groupe a segmenté le marché par prix et canaux de distribution. Pour chacun des quatre segments sur lesquels il opère, les marques ou cuvées correspondantes sont les suivantes :
 Prestige :
 Noble cuvée de Lanson ;
 Extra Âge de Lanson ;
@@ -634,9 +652,11 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le PDG et principal actionnaire est Bruno Paillard[12]. Ce dernier possède également une maison de champagne du même nom[13],[14].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le PDG et principal actionnaire est Bruno Paillard. Ce dernier possède également une maison de champagne du même nom,.</t>
         </is>
       </c>
     </row>
